--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（旧）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73B3CC-C541-46FA-B9B4-6D7961B0C7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDCDCF-70F8-4D26-BF65-F208688D0B2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,7 +4156,7 @@
   </sheetPr>
   <dimension ref="A1:H375"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A153" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
@@ -12807,6 +12807,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDCDCF-70F8-4D26-BF65-F208688D0B2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588D85AB-D190-4A12-A36E-DC7B92C3A1A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="web版" sheetId="6" r:id="rId1"/>
+    <sheet name="web版 (2)" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'web版 (2)'!$A$3:$G$137</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'web版 (2)'!$A$1:$G$385</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="612">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2778,6 +2778,9 @@
     <t>本県発表120</t>
   </si>
   <si>
+    <t>令和2年4月17日現在</t>
+  </si>
+  <si>
     <t>40代男性</t>
   </si>
   <si>
@@ -3702,7 +3705,7 @@
     <t>名古屋市発表211</t>
   </si>
   <si>
-    <t>No.368と接触</t>
+    <t>No.367と接触</t>
   </si>
   <si>
     <t>名古屋市発表212</t>
@@ -3720,7 +3723,43 @@
     <t>名古屋市発表216</t>
   </si>
   <si>
-    <t>令和2年4月16日現在</t>
+    <t>豊田市発表6</t>
+  </si>
+  <si>
+    <t>No.224等と接触</t>
+  </si>
+  <si>
+    <t>本県発表137</t>
+  </si>
+  <si>
+    <t>知立市</t>
+  </si>
+  <si>
+    <t>本県発表138</t>
+  </si>
+  <si>
+    <t>名古屋市発表217</t>
+  </si>
+  <si>
+    <t>名古屋市発表218</t>
+  </si>
+  <si>
+    <t>名古屋市発表219</t>
+  </si>
+  <si>
+    <t>名古屋市発表220</t>
+  </si>
+  <si>
+    <t>No.379と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表221</t>
+  </si>
+  <si>
+    <t>名古屋市発表222</t>
+  </si>
+  <si>
+    <t>名古屋市発表223</t>
   </si>
 </sst>
 </file>
@@ -4150,14 +4189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695D4EFF-5A44-4A81-A7F3-9FEE8AB29C7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32801FD-F8B2-4FB8-9BED-940AFCBCAB09}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A375" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4184,7 +4223,7 @@
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G2" s="6" t="s">
-        <v>598</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -4218,16 +4257,16 @@
         <v>43856</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -4241,16 +4280,16 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -4264,10 +4303,10 @@
         <v>43875</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -4287,16 +4326,16 @@
         <v>43876</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -4310,16 +4349,16 @@
         <v>43877</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
@@ -4333,16 +4372,16 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -4356,16 +4395,16 @@
         <v>43879</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>26</v>
@@ -4379,16 +4418,16 @@
         <v>43880</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>27</v>
@@ -4402,16 +4441,16 @@
         <v>43881</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>28</v>
@@ -4425,16 +4464,16 @@
         <v>43882</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
@@ -4448,16 +4487,16 @@
         <v>43882</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>30</v>
@@ -4471,16 +4510,16 @@
         <v>43883</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>31</v>
@@ -4494,16 +4533,16 @@
         <v>43883</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>32</v>
@@ -4517,16 +4556,16 @@
         <v>43883</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
@@ -4540,16 +4579,16 @@
         <v>43883</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>34</v>
@@ -4563,16 +4602,16 @@
         <v>43884</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>35</v>
@@ -4586,16 +4625,16 @@
         <v>43884</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>36</v>
@@ -4609,16 +4648,16 @@
         <v>43886</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>37</v>
@@ -4632,16 +4671,16 @@
         <v>43886</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>38</v>
@@ -4655,16 +4694,16 @@
         <v>43886</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>39</v>
@@ -4678,16 +4717,16 @@
         <v>43887</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>40</v>
@@ -4701,16 +4740,16 @@
         <v>43887</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>41</v>
@@ -4724,16 +4763,16 @@
         <v>43887</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>42</v>
@@ -4747,16 +4786,16 @@
         <v>43887</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>43</v>
@@ -4770,16 +4809,16 @@
         <v>43887</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>44</v>
@@ -4793,16 +4832,16 @@
         <v>43888</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>45</v>
@@ -4816,16 +4855,16 @@
         <v>43888</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>46</v>
@@ -4839,16 +4878,16 @@
         <v>43889</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>47</v>
@@ -4862,10 +4901,10 @@
         <v>43890</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -4885,16 +4924,16 @@
         <v>43891</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>49</v>
@@ -4908,16 +4947,16 @@
         <v>43891</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>50</v>
@@ -4931,10 +4970,10 @@
         <v>43891</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
@@ -4954,16 +4993,16 @@
         <v>43893</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>52</v>
@@ -4977,16 +5016,16 @@
         <v>43893</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>53</v>
@@ -5000,10 +5039,10 @@
         <v>43893</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
@@ -5023,10 +5062,10 @@
         <v>43893</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>23</v>
@@ -5046,16 +5085,16 @@
         <v>43893</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>56</v>
@@ -5069,16 +5108,16 @@
         <v>43893</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>57</v>
@@ -5092,16 +5131,16 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>58</v>
@@ -5115,10 +5154,10 @@
         <v>43893</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -5138,10 +5177,10 @@
         <v>43893</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -5161,16 +5200,16 @@
         <v>43894</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>61</v>
@@ -5184,16 +5223,16 @@
         <v>43894</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>62</v>
@@ -5207,16 +5246,16 @@
         <v>43894</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>63</v>
@@ -5230,16 +5269,16 @@
         <v>43894</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>64</v>
@@ -5253,16 +5292,16 @@
         <v>43894</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>65</v>
@@ -5276,16 +5315,16 @@
         <v>43894</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>66</v>
@@ -5299,16 +5338,16 @@
         <v>43894</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>67</v>
@@ -5322,16 +5361,16 @@
         <v>43894</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>68</v>
@@ -5345,10 +5384,10 @@
         <v>43895</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>23</v>
@@ -5369,16 +5408,16 @@
         <v>43895</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>70</v>
@@ -5393,16 +5432,16 @@
         <v>43895</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>71</v>
@@ -5417,16 +5456,16 @@
         <v>43895</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>72</v>
@@ -5441,16 +5480,16 @@
         <v>43895</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>73</v>
@@ -5464,16 +5503,16 @@
         <v>43895</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>74</v>
@@ -5487,16 +5526,16 @@
         <v>43895</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>75</v>
@@ -5510,10 +5549,10 @@
         <v>43895</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -5533,16 +5572,16 @@
         <v>43896</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>77</v>
@@ -5556,16 +5595,16 @@
         <v>43896</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>78</v>
@@ -5579,16 +5618,16 @@
         <v>43896</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>79</v>
@@ -5602,16 +5641,16 @@
         <v>43896</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>80</v>
@@ -5625,16 +5664,16 @@
         <v>43896</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>81</v>
@@ -5648,16 +5687,16 @@
         <v>43897</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>82</v>
@@ -5671,16 +5710,16 @@
         <v>43897</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>83</v>
@@ -5694,16 +5733,16 @@
         <v>43897</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>84</v>
@@ -5717,16 +5756,16 @@
         <v>43897</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>85</v>
@@ -5740,16 +5779,16 @@
         <v>43897</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>86</v>
@@ -5764,16 +5803,16 @@
         <v>43897</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>87</v>
@@ -5788,16 +5827,16 @@
         <v>43897</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>88</v>
@@ -5812,16 +5851,16 @@
         <v>43898</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>89</v>
@@ -5836,16 +5875,16 @@
         <v>43898</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>90</v>
@@ -5860,16 +5899,16 @@
         <v>43898</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>91</v>
@@ -5884,16 +5923,16 @@
         <v>43898</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>92</v>
@@ -5907,16 +5946,16 @@
         <v>43898</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>93</v>
@@ -5930,16 +5969,16 @@
         <v>43898</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>94</v>
@@ -5953,16 +5992,16 @@
         <v>43898</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
@@ -5976,16 +6015,16 @@
         <v>43898</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
@@ -5999,16 +6038,16 @@
         <v>43898</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
@@ -6022,16 +6061,16 @@
         <v>43898</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>98</v>
@@ -6045,16 +6084,16 @@
         <v>43898</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>99</v>
@@ -6068,16 +6107,16 @@
         <v>43899</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>100</v>
@@ -6091,16 +6130,16 @@
         <v>43899</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>101</v>
@@ -6114,16 +6153,16 @@
         <v>43899</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>102</v>
@@ -6137,16 +6176,16 @@
         <v>43899</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>103</v>
@@ -6160,16 +6199,16 @@
         <v>43899</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>104</v>
@@ -6183,16 +6222,16 @@
         <v>43899</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>105</v>
@@ -6206,16 +6245,16 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>106</v>
@@ -6229,16 +6268,16 @@
         <v>43900</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>107</v>
@@ -6253,16 +6292,16 @@
         <v>43900</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>108</v>
@@ -6277,16 +6316,16 @@
         <v>43900</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>109</v>
@@ -6301,16 +6340,16 @@
         <v>43900</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>110</v>
@@ -6325,16 +6364,16 @@
         <v>43900</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>111</v>
@@ -6349,16 +6388,16 @@
         <v>43900</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>112</v>
@@ -6373,16 +6412,16 @@
         <v>43900</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>113</v>
@@ -6397,16 +6436,16 @@
         <v>43900</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>114</v>
@@ -6420,16 +6459,16 @@
         <v>43900</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>115</v>
@@ -6443,16 +6482,16 @@
         <v>43900</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>116</v>
@@ -6466,16 +6505,16 @@
         <v>43900</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>117</v>
@@ -6489,10 +6528,10 @@
         <v>43900</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>6</v>
@@ -6512,16 +6551,16 @@
         <v>43901</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>119</v>
@@ -6535,16 +6574,16 @@
         <v>43901</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>120</v>
@@ -6558,16 +6597,16 @@
         <v>43901</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>121</v>
@@ -6581,16 +6620,16 @@
         <v>43901</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>122</v>
@@ -6604,16 +6643,16 @@
         <v>43901</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>123</v>
@@ -6627,7 +6666,7 @@
         <v>43902</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -6636,7 +6675,7 @@
         <v>11</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>124</v>
@@ -6650,10 +6689,10 @@
         <v>43902</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>12</v>
@@ -6674,16 +6713,16 @@
         <v>43902</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>126</v>
@@ -6698,16 +6737,16 @@
         <v>43902</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>127</v>
@@ -6722,16 +6761,16 @@
         <v>43902</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>128</v>
@@ -6746,16 +6785,16 @@
         <v>43902</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>129</v>
@@ -6770,13 +6809,13 @@
         <v>43902</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
@@ -6793,16 +6832,16 @@
         <v>43903</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>131</v>
@@ -6816,16 +6855,16 @@
         <v>43903</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>132</v>
@@ -6840,16 +6879,16 @@
         <v>43903</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>133</v>
@@ -6864,16 +6903,16 @@
         <v>43904</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>134</v>
@@ -6888,16 +6927,16 @@
         <v>43904</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>135</v>
@@ -6912,16 +6951,16 @@
         <v>43904</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>136</v>
@@ -6936,16 +6975,16 @@
         <v>43904</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>137</v>
@@ -6960,16 +6999,16 @@
         <v>43904</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>138</v>
@@ -6984,16 +7023,16 @@
         <v>43904</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>139</v>
@@ -7008,16 +7047,16 @@
         <v>43904</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>140</v>
@@ -7031,13 +7070,13 @@
         <v>43906</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>15</v>
@@ -7054,16 +7093,16 @@
         <v>43906</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>142</v>
@@ -7077,13 +7116,13 @@
         <v>43907</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
@@ -7100,16 +7139,16 @@
         <v>43907</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>144</v>
@@ -7123,16 +7162,16 @@
         <v>43908</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>145</v>
@@ -7146,16 +7185,16 @@
         <v>43908</v>
       </c>
       <c r="C130" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>146</v>
@@ -7169,13 +7208,13 @@
         <v>43908</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F131" s="5">
         <v>0</v>
@@ -7192,16 +7231,16 @@
         <v>43908</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>148</v>
@@ -7215,13 +7254,13 @@
         <v>43908</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
@@ -7238,13 +7277,13 @@
         <v>43909</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
@@ -7261,13 +7300,13 @@
         <v>43909</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
@@ -7284,16 +7323,16 @@
         <v>43909</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>152</v>
@@ -7307,13 +7346,13 @@
         <v>43909</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -7330,16 +7369,16 @@
         <v>43910</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>154</v>
@@ -7353,16 +7392,16 @@
         <v>43910</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>155</v>
@@ -7376,16 +7415,16 @@
         <v>43910</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>156</v>
@@ -7399,16 +7438,16 @@
         <v>43910</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>157</v>
@@ -7422,13 +7461,13 @@
         <v>43910</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
@@ -7445,13 +7484,13 @@
         <v>43911</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>16</v>
@@ -7468,16 +7507,16 @@
         <v>43911</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>160</v>
@@ -7491,16 +7530,16 @@
         <v>43912</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>161</v>
@@ -7514,16 +7553,16 @@
         <v>43912</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>162</v>
@@ -7537,13 +7576,13 @@
         <v>43913</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>13</v>
@@ -7560,13 +7599,13 @@
         <v>43913</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F148" s="5">
         <v>0</v>
@@ -7583,13 +7622,13 @@
         <v>43914</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F149" s="5">
         <v>0</v>
@@ -7606,16 +7645,16 @@
         <v>43914</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>166</v>
@@ -7629,16 +7668,16 @@
         <v>43914</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>167</v>
@@ -7652,16 +7691,16 @@
         <v>43915</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>168</v>
@@ -7675,16 +7714,16 @@
         <v>43915</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>169</v>
@@ -7698,16 +7737,16 @@
         <v>43915</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>170</v>
@@ -7721,16 +7760,16 @@
         <v>43915</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>171</v>
@@ -7744,16 +7783,16 @@
         <v>43915</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>172</v>
@@ -7767,16 +7806,16 @@
         <v>43915</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>173</v>
@@ -7790,16 +7829,16 @@
         <v>43916</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>174</v>
@@ -7813,16 +7852,16 @@
         <v>43916</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>175</v>
@@ -7836,16 +7875,16 @@
         <v>43916</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>176</v>
@@ -7859,16 +7898,16 @@
         <v>43917</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>177</v>
@@ -7882,16 +7921,16 @@
         <v>43917</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>178</v>
@@ -7905,16 +7944,16 @@
         <v>43917</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>179</v>
@@ -7928,16 +7967,16 @@
         <v>43918</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>180</v>
@@ -7951,13 +7990,13 @@
         <v>43918</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
@@ -7974,16 +8013,16 @@
         <v>43918</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>182</v>
@@ -7997,16 +8036,16 @@
         <v>43918</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>183</v>
@@ -8020,16 +8059,16 @@
         <v>43919</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>184</v>
@@ -8043,16 +8082,16 @@
         <v>43919</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>185</v>
@@ -8066,16 +8105,16 @@
         <v>43919</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>186</v>
@@ -8089,16 +8128,16 @@
         <v>43920</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>187</v>
@@ -8112,13 +8151,13 @@
         <v>43920</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
@@ -8135,16 +8174,16 @@
         <v>43920</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>189</v>
@@ -8158,13 +8197,13 @@
         <v>43921</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
@@ -8181,16 +8220,16 @@
         <v>43921</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>191</v>
@@ -8204,13 +8243,13 @@
         <v>43921</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>13</v>
@@ -8227,13 +8266,13 @@
         <v>43921</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
@@ -8250,16 +8289,16 @@
         <v>43921</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>194</v>
@@ -8273,13 +8312,13 @@
         <v>43921</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>17</v>
@@ -8296,13 +8335,13 @@
         <v>43921</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
@@ -8319,13 +8358,13 @@
         <v>43921</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
@@ -8342,13 +8381,13 @@
         <v>43922</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
@@ -8365,13 +8404,13 @@
         <v>43922</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>13</v>
@@ -8388,16 +8427,16 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>200</v>
@@ -8411,16 +8450,16 @@
         <v>43922</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>201</v>
@@ -8434,13 +8473,13 @@
         <v>43922</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F186" s="1">
         <v>0</v>
@@ -8457,13 +8496,13 @@
         <v>43923</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>13</v>
@@ -8480,16 +8519,16 @@
         <v>43923</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>204</v>
@@ -8503,16 +8542,16 @@
         <v>43923</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>205</v>
@@ -8526,16 +8565,16 @@
         <v>43923</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>206</v>
@@ -8549,13 +8588,13 @@
         <v>43923</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F191" s="5">
         <v>0</v>
@@ -8572,16 +8611,16 @@
         <v>43923</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>208</v>
@@ -8595,16 +8634,16 @@
         <v>43923</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>209</v>
@@ -8618,16 +8657,16 @@
         <v>43924</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>210</v>
@@ -8641,16 +8680,16 @@
         <v>43924</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>211</v>
@@ -8664,16 +8703,16 @@
         <v>43924</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>212</v>
@@ -8687,16 +8726,16 @@
         <v>43924</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>213</v>
@@ -8710,16 +8749,16 @@
         <v>43924</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>214</v>
@@ -8733,16 +8772,16 @@
         <v>43924</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>215</v>
@@ -8756,16 +8795,16 @@
         <v>43924</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>216</v>
@@ -8779,16 +8818,16 @@
         <v>43924</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>217</v>
@@ -8802,16 +8841,16 @@
         <v>43924</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>218</v>
@@ -8825,13 +8864,13 @@
         <v>43924</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
@@ -8848,13 +8887,13 @@
         <v>43924</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
@@ -8871,13 +8910,13 @@
         <v>43924</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
@@ -8894,16 +8933,16 @@
         <v>43925</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>222</v>
@@ -8917,16 +8956,16 @@
         <v>43925</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>223</v>
@@ -8940,16 +8979,16 @@
         <v>43925</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>224</v>
@@ -8963,16 +9002,16 @@
         <v>43925</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>225</v>
@@ -8986,16 +9025,16 @@
         <v>43925</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>226</v>
@@ -9009,13 +9048,13 @@
         <v>43925</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -9032,13 +9071,13 @@
         <v>43925</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -9055,13 +9094,13 @@
         <v>43925</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
@@ -9078,16 +9117,16 @@
         <v>43925</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>230</v>
@@ -9101,13 +9140,13 @@
         <v>43925</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>14</v>
@@ -9124,13 +9163,13 @@
         <v>43925</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F216" s="5">
         <v>0</v>
@@ -9147,16 +9186,16 @@
         <v>43925</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>233</v>
@@ -9170,16 +9209,16 @@
         <v>43925</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>234</v>
@@ -9193,16 +9232,16 @@
         <v>43925</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>235</v>
@@ -9216,16 +9255,16 @@
         <v>43925</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>236</v>
@@ -9239,13 +9278,13 @@
         <v>43925</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F221" s="5">
         <v>0</v>
@@ -9262,13 +9301,13 @@
         <v>43925</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F222" s="5">
         <v>0</v>
@@ -9285,13 +9324,13 @@
         <v>43925</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F223" s="5">
         <v>0</v>
@@ -9308,13 +9347,13 @@
         <v>43925</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F224" s="5">
         <v>0</v>
@@ -9331,16 +9370,16 @@
         <v>43926</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>241</v>
@@ -9354,16 +9393,16 @@
         <v>43926</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D226" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>242</v>
@@ -9377,16 +9416,16 @@
         <v>43926</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>243</v>
@@ -9400,16 +9439,16 @@
         <v>43926</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>244</v>
@@ -9423,16 +9462,16 @@
         <v>43926</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>245</v>
@@ -9446,16 +9485,16 @@
         <v>43926</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>246</v>
@@ -9469,13 +9508,13 @@
         <v>43926</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
@@ -9492,16 +9531,16 @@
         <v>43927</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>248</v>
@@ -9515,16 +9554,16 @@
         <v>43927</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>249</v>
@@ -9538,16 +9577,16 @@
         <v>43927</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>250</v>
@@ -9561,13 +9600,13 @@
         <v>43927</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
@@ -9584,13 +9623,13 @@
         <v>43927</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
@@ -9607,16 +9646,16 @@
         <v>43927</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>253</v>
@@ -9630,16 +9669,16 @@
         <v>43927</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>254</v>
@@ -9653,16 +9692,16 @@
         <v>43927</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>255</v>
@@ -9676,16 +9715,16 @@
         <v>43927</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>256</v>
@@ -9699,13 +9738,13 @@
         <v>43927</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F241" s="5">
         <v>0</v>
@@ -9722,13 +9761,13 @@
         <v>43927</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F242" s="5">
         <v>0</v>
@@ -9745,16 +9784,16 @@
         <v>43928</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>259</v>
@@ -9768,16 +9807,16 @@
         <v>43928</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>260</v>
@@ -9791,13 +9830,13 @@
         <v>43928</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F245" s="5">
         <v>0</v>
@@ -9814,16 +9853,16 @@
         <v>43928</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>262</v>
@@ -9837,13 +9876,13 @@
         <v>43928</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>13</v>
@@ -9860,16 +9899,16 @@
         <v>43928</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>264</v>
@@ -9883,16 +9922,16 @@
         <v>43928</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>265</v>
@@ -9906,16 +9945,16 @@
         <v>43928</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>266</v>
@@ -9929,13 +9968,13 @@
         <v>43928</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
@@ -9952,16 +9991,16 @@
         <v>43928</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>268</v>
@@ -9975,13 +10014,13 @@
         <v>43928</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F253" s="5">
         <v>0</v>
@@ -9998,16 +10037,16 @@
         <v>43928</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>270</v>
@@ -10021,16 +10060,16 @@
         <v>43928</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>271</v>
@@ -10044,16 +10083,16 @@
         <v>43928</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>272</v>
@@ -10067,16 +10106,16 @@
         <v>43928</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>273</v>
@@ -10090,16 +10129,16 @@
         <v>43928</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>274</v>
@@ -10113,16 +10152,16 @@
         <v>43928</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>275</v>
@@ -10136,16 +10175,16 @@
         <v>43928</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D260" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>276</v>
@@ -10159,13 +10198,13 @@
         <v>43928</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F261" s="5">
         <v>0</v>
@@ -10182,13 +10221,13 @@
         <v>43928</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F262" s="5">
         <v>0</v>
@@ -10205,13 +10244,13 @@
         <v>43928</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D263" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F263" s="5">
         <v>0</v>
@@ -10228,19 +10267,19 @@
         <v>43929</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D264" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.4">
@@ -10251,19 +10290,19 @@
         <v>43929</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.4">
@@ -10274,19 +10313,19 @@
         <v>43929</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.4">
@@ -10297,19 +10336,19 @@
         <v>43929</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.4">
@@ -10320,19 +10359,19 @@
         <v>43929</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F268" s="5">
         <v>0</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.4">
@@ -10343,19 +10382,19 @@
         <v>43929</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F269" s="5">
         <v>0</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.4">
@@ -10366,19 +10405,19 @@
         <v>43929</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.4">
@@ -10389,19 +10428,19 @@
         <v>43929</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.4">
@@ -10412,19 +10451,19 @@
         <v>43929</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.4">
@@ -10435,19 +10474,19 @@
         <v>43929</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.4">
@@ -10458,19 +10497,19 @@
         <v>43929</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F274" s="5">
         <v>0</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.4">
@@ -10481,19 +10520,19 @@
         <v>43929</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.4">
@@ -10504,19 +10543,19 @@
         <v>43929</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D276" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.4">
@@ -10527,19 +10566,19 @@
         <v>43929</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.4">
@@ -10550,19 +10589,19 @@
         <v>43929</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.4">
@@ -10573,19 +10612,19 @@
         <v>43929</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.4">
@@ -10596,19 +10635,19 @@
         <v>43929</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E280" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F280" s="5">
         <v>0</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.4">
@@ -10619,19 +10658,19 @@
         <v>43929</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D281" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.4">
@@ -10642,19 +10681,19 @@
         <v>43929</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F282" s="5">
         <v>0</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.4">
@@ -10665,19 +10704,19 @@
         <v>43929</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F283" s="5">
         <v>0</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.4">
@@ -10688,19 +10727,19 @@
         <v>43930</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E284" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.4">
@@ -10711,19 +10750,19 @@
         <v>43930</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D285" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E285" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.4">
@@ -10734,19 +10773,19 @@
         <v>43930</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D286" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.4">
@@ -10757,19 +10796,19 @@
         <v>43930</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.4">
@@ -10780,19 +10819,19 @@
         <v>43930</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D288" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F288" s="5">
         <v>0</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.4">
@@ -10803,19 +10842,19 @@
         <v>43930</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F289" s="5">
         <v>0</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.4">
@@ -10826,19 +10865,19 @@
         <v>43930</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D290" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E290" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.4">
@@ -10849,19 +10888,19 @@
         <v>43930</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D291" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.4">
@@ -10872,19 +10911,19 @@
         <v>43930</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D292" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E292" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.4">
@@ -10895,19 +10934,19 @@
         <v>43930</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D293" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F293" s="5">
         <v>0</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.4">
@@ -10918,19 +10957,19 @@
         <v>43930</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D294" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
@@ -10941,19 +10980,19 @@
         <v>43930</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D295" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
@@ -10964,19 +11003,19 @@
         <v>43930</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D296" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F296" s="5">
         <v>0</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
@@ -10987,19 +11026,19 @@
         <v>43930</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D297" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
@@ -11010,19 +11049,19 @@
         <v>43930</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E298" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
@@ -11033,19 +11072,19 @@
         <v>43930</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D299" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
@@ -11056,19 +11095,19 @@
         <v>43930</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D300" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
@@ -11079,19 +11118,19 @@
         <v>43930</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D301" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
@@ -11102,19 +11141,19 @@
         <v>43930</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E302" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
@@ -11125,19 +11164,19 @@
         <v>43930</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D303" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F303" s="5">
         <v>0</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
@@ -11148,19 +11187,19 @@
         <v>43930</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D304" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F304" s="5">
         <v>0</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.4">
@@ -11171,19 +11210,19 @@
         <v>43931</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D305" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.4">
@@ -11194,19 +11233,19 @@
         <v>43931</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D306" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F306" s="5">
         <v>0</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.4">
@@ -11217,19 +11256,19 @@
         <v>43931</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F307" s="5">
         <v>0</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.4">
@@ -11240,19 +11279,19 @@
         <v>43931</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F308" s="5">
         <v>0</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.4">
@@ -11263,19 +11302,19 @@
         <v>43931</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D309" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.4">
@@ -11286,19 +11325,19 @@
         <v>43931</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.4">
@@ -11309,19 +11348,19 @@
         <v>43931</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D311" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.4">
@@ -11332,19 +11371,19 @@
         <v>43931</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.4">
@@ -11355,19 +11394,19 @@
         <v>43931</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D313" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.4">
@@ -11378,19 +11417,19 @@
         <v>43931</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.4">
@@ -11401,19 +11440,19 @@
         <v>43931</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D315" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.4">
@@ -11424,19 +11463,19 @@
         <v>43931</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E316" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.4">
@@ -11447,19 +11486,19 @@
         <v>43931</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D317" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E317" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.4">
@@ -11470,19 +11509,19 @@
         <v>43931</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D318" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F318" s="5">
         <v>0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.4">
@@ -11493,19 +11532,19 @@
         <v>43932</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E319" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F319" s="5">
         <v>0</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.4">
@@ -11516,19 +11555,19 @@
         <v>43932</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D320" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E320" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.4">
@@ -11539,19 +11578,19 @@
         <v>43932</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D321" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E321" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.4">
@@ -11562,13 +11601,13 @@
         <v>43932</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E322" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F322" s="5">
         <v>0</v>
@@ -11585,16 +11624,16 @@
         <v>43932</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D323" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>281</v>
@@ -11608,16 +11647,16 @@
         <v>43932</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D324" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E324" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>282</v>
@@ -11631,19 +11670,19 @@
         <v>43932</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D325" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E325" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.4">
@@ -11654,19 +11693,19 @@
         <v>43932</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E326" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.4">
@@ -11677,19 +11716,19 @@
         <v>43932</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F327" s="5">
         <v>0</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.4">
@@ -11700,19 +11739,19 @@
         <v>43932</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D328" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E328" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.4">
@@ -11723,19 +11762,19 @@
         <v>43933</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D329" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E329" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.4">
@@ -11746,19 +11785,19 @@
         <v>43933</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D330" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E330" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.4">
@@ -11769,19 +11808,19 @@
         <v>43934</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D331" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E331" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.4">
@@ -11792,19 +11831,19 @@
         <v>43934</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D332" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E332" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.4">
@@ -11815,13 +11854,13 @@
         <v>43934</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D333" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E333" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F333" s="5">
         <v>0</v>
@@ -11838,19 +11877,19 @@
         <v>43934</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.4">
@@ -11861,19 +11900,19 @@
         <v>43934</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F335" s="5">
         <v>0</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.4">
@@ -11884,19 +11923,19 @@
         <v>43934</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.4">
@@ -11907,19 +11946,19 @@
         <v>43934</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.4">
@@ -11930,19 +11969,19 @@
         <v>43934</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F338" s="5">
         <v>0</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.4">
@@ -11953,19 +11992,19 @@
         <v>43934</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F339" s="5">
         <v>0</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.4">
@@ -11976,19 +12015,19 @@
         <v>43935</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.4">
@@ -11999,19 +12038,19 @@
         <v>43935</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.4">
@@ -12022,19 +12061,19 @@
         <v>43935</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F342" s="5">
         <v>0</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.4">
@@ -12045,19 +12084,19 @@
         <v>43935</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.4">
@@ -12068,19 +12107,19 @@
         <v>43935</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.4">
@@ -12091,19 +12130,19 @@
         <v>43935</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.4">
@@ -12114,19 +12153,19 @@
         <v>43935</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.4">
@@ -12137,19 +12176,19 @@
         <v>43935</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F347" s="5">
         <v>0</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.4">
@@ -12160,19 +12199,19 @@
         <v>43935</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F348" s="5">
         <v>0</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.4">
@@ -12183,19 +12222,19 @@
         <v>43935</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F349" s="5">
         <v>0</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.4">
@@ -12206,19 +12245,19 @@
         <v>43936</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.4">
@@ -12229,19 +12268,19 @@
         <v>43936</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.4">
@@ -12252,19 +12291,19 @@
         <v>43936</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F352" s="5">
         <v>0</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.4">
@@ -12275,19 +12314,19 @@
         <v>43936</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F353" s="5">
         <v>0</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.4">
@@ -12298,19 +12337,19 @@
         <v>43936</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F354" s="5">
         <v>0</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.4">
@@ -12321,19 +12360,19 @@
         <v>43936</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.4">
@@ -12344,19 +12383,19 @@
         <v>43936</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.4">
@@ -12367,19 +12406,19 @@
         <v>43936</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D357" s="13">
         <v>0</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.4">
@@ -12390,19 +12429,19 @@
         <v>43936</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D358" s="13">
         <v>0</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.4">
@@ -12413,19 +12452,19 @@
         <v>43936</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D359" s="13">
         <v>0</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.4">
@@ -12436,19 +12475,19 @@
         <v>43936</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D360" s="13">
         <v>0</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F360" s="5">
         <v>0</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.4">
@@ -12459,19 +12498,19 @@
         <v>43936</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D361" s="13">
         <v>0</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F361" s="5">
         <v>0</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.4">
@@ -12482,19 +12521,19 @@
         <v>43937</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F362" s="5">
         <v>0</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.4">
@@ -12505,19 +12544,19 @@
         <v>43937</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F363" s="5">
         <v>0</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.4">
@@ -12528,19 +12567,19 @@
         <v>43937</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F364" s="5">
         <v>0</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.4">
@@ -12551,19 +12590,19 @@
         <v>43937</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F365" s="5">
         <v>0</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.4">
@@ -12574,19 +12613,19 @@
         <v>43937</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D366" s="13">
         <v>0</v>
       </c>
       <c r="E366" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.4">
@@ -12597,19 +12636,19 @@
         <v>43937</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D367" s="13">
         <v>0</v>
       </c>
       <c r="E367" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.4">
@@ -12620,19 +12659,19 @@
         <v>43937</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D368" s="13">
         <v>0</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.4">
@@ -12643,19 +12682,19 @@
         <v>43937</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D369" s="13">
         <v>0</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.4">
@@ -12666,19 +12705,19 @@
         <v>43937</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D370" s="13">
         <v>0</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.4">
@@ -12689,19 +12728,19 @@
         <v>43937</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D371" s="13">
         <v>0</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.4">
@@ -12712,19 +12751,19 @@
         <v>43937</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D372" s="13">
         <v>0</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F372" s="5">
         <v>0</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.4">
@@ -12735,19 +12774,19 @@
         <v>43937</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D373" s="13">
         <v>0</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F373" s="5">
         <v>0</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.4">
@@ -12758,19 +12797,19 @@
         <v>43937</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D374" s="13">
         <v>0</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F374" s="5">
         <v>0</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.4">
@@ -12781,19 +12820,249 @@
         <v>43937</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D375" s="13">
         <v>0</v>
       </c>
       <c r="E375" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F375" s="5">
         <v>0</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A376" s="5">
+        <v>373</v>
+      </c>
+      <c r="B376" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D376" s="13">
+        <v>0</v>
+      </c>
+      <c r="E376" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F376" s="5">
+        <v>0</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A377" s="5">
+        <v>374</v>
+      </c>
+      <c r="B377" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C377" s="13">
+        <v>0</v>
+      </c>
+      <c r="D377" s="13">
+        <v>0</v>
+      </c>
+      <c r="E377" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A378" s="5">
+        <v>375</v>
+      </c>
+      <c r="B378" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D378" s="13">
+        <v>0</v>
+      </c>
+      <c r="E378" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="F378" s="5">
+        <v>0</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A379" s="5">
+        <v>376</v>
+      </c>
+      <c r="B379" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D379" s="13">
+        <v>0</v>
+      </c>
+      <c r="E379" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A380" s="5">
+        <v>377</v>
+      </c>
+      <c r="B380" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D380" s="13">
+        <v>0</v>
+      </c>
+      <c r="E380" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A381" s="5">
+        <v>378</v>
+      </c>
+      <c r="B381" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C381" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D381" s="13">
+        <v>0</v>
+      </c>
+      <c r="E381" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A382" s="5">
+        <v>379</v>
+      </c>
+      <c r="B382" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C382" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D382" s="13">
+        <v>0</v>
+      </c>
+      <c r="E382" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F382" s="5">
+        <v>0</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A383" s="5">
+        <v>380</v>
+      </c>
+      <c r="B383" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D383" s="13">
+        <v>0</v>
+      </c>
+      <c r="E383" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A384" s="5">
+        <v>381</v>
+      </c>
+      <c r="B384" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C384" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D384" s="13">
+        <v>0</v>
+      </c>
+      <c r="E384" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F384" s="5">
+        <v>0</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A385" s="5">
+        <v>382</v>
+      </c>
+      <c r="B385" s="7">
+        <v>43938</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D385" s="13">
+        <v>0</v>
+      </c>
+      <c r="E385" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F385" s="5">
+        <v>0</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -12807,6 +13076,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a110870300\Desktop\★更新用データ★\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588D85AB-D190-4A12-A36E-DC7B92C3A1A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A65A2-0DB6-4332-874C-A5D6CB0736B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="web版 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="web版 " sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'web版 (2)'!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'web版 (2)'!$A$1:$G$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'web版 '!$A$3:$G$137</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'web版 '!$A$1:$G$402</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="612">
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="635">
   <si>
     <t>年代・性別</t>
     <rPh sb="0" eb="2">
@@ -170,6 +166,13 @@
     <t>イギリス</t>
   </si>
   <si>
+    <t>再感染</t>
+    <rPh sb="0" eb="3">
+      <t>サイカンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>住居地</t>
     <rPh sb="0" eb="3">
       <t>ジュウキョチ</t>
@@ -2778,7 +2781,7 @@
     <t>本県発表120</t>
   </si>
   <si>
-    <t>令和2年4月17日現在</t>
+    <t>No</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -3760,6 +3763,75 @@
   </si>
   <si>
     <t>名古屋市発表223</t>
+  </si>
+  <si>
+    <t>No.323と接触</t>
+  </si>
+  <si>
+    <t>本県発表139</t>
+  </si>
+  <si>
+    <t>本県発表140</t>
+  </si>
+  <si>
+    <t>阿久比町</t>
+  </si>
+  <si>
+    <t>No.352と接触</t>
+  </si>
+  <si>
+    <t>本県発表141</t>
+  </si>
+  <si>
+    <t>本県発表142</t>
+  </si>
+  <si>
+    <t>本県発表143</t>
+  </si>
+  <si>
+    <t>本県発表144</t>
+  </si>
+  <si>
+    <t>本県発表145</t>
+  </si>
+  <si>
+    <t>本県発表146</t>
+  </si>
+  <si>
+    <t>名古屋市発表224</t>
+  </si>
+  <si>
+    <t>名古屋市発表225</t>
+  </si>
+  <si>
+    <t>No.371と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表226</t>
+  </si>
+  <si>
+    <t>No.372と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表227</t>
+  </si>
+  <si>
+    <t>名古屋市発表228</t>
+  </si>
+  <si>
+    <t>名古屋市発表229</t>
+  </si>
+  <si>
+    <t>名古屋市発表230</t>
+  </si>
+  <si>
+    <t>名古屋市発表231</t>
+  </si>
+  <si>
+    <t>名古屋市発表232</t>
+  </si>
+  <si>
+    <t>令和2年4月18日現在</t>
   </si>
 </sst>
 </file>
@@ -4189,14 +4261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32801FD-F8B2-4FB8-9BED-940AFCBCAB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8708E6CD-492B-4907-A212-5E82990A62A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A375" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C390" sqref="C390"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M381" sqref="M381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4212,7 +4284,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4223,30 +4295,30 @@
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G2" s="6" t="s">
-        <v>284</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -4263,7 +4335,7 @@
         <v>286</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>286</v>
@@ -4286,7 +4358,7 @@
         <v>286</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>286</v>
@@ -4309,10 +4381,10 @@
         <v>288</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -4332,7 +4404,7 @@
         <v>288</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>290</v>
@@ -4424,7 +4496,7 @@
         <v>288</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>291</v>
@@ -4447,7 +4519,7 @@
         <v>288</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>291</v>
@@ -4470,7 +4542,7 @@
         <v>288</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>291</v>
@@ -4493,7 +4565,7 @@
         <v>288</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>298</v>
@@ -4516,7 +4588,7 @@
         <v>288</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>291</v>
@@ -4539,7 +4611,7 @@
         <v>288</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>291</v>
@@ -4562,7 +4634,7 @@
         <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>298</v>
@@ -4585,7 +4657,7 @@
         <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>298</v>
@@ -4608,7 +4680,7 @@
         <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>291</v>
@@ -4631,7 +4703,7 @@
         <v>288</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>291</v>
@@ -4654,7 +4726,7 @@
         <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>291</v>
@@ -4677,7 +4749,7 @@
         <v>288</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>291</v>
@@ -4700,7 +4772,7 @@
         <v>288</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>298</v>
@@ -4723,7 +4795,7 @@
         <v>288</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>298</v>
@@ -4746,7 +4818,7 @@
         <v>288</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>298</v>
@@ -4769,7 +4841,7 @@
         <v>288</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>298</v>
@@ -4792,7 +4864,7 @@
         <v>288</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>302</v>
@@ -4815,7 +4887,7 @@
         <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>303</v>
@@ -4838,7 +4910,7 @@
         <v>288</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>302</v>
@@ -4861,7 +4933,7 @@
         <v>288</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>304</v>
@@ -4884,7 +4956,7 @@
         <v>288</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>305</v>
@@ -4907,7 +4979,7 @@
         <v>288</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -4930,7 +5002,7 @@
         <v>288</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>307</v>
@@ -4953,7 +5025,7 @@
         <v>288</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>307</v>
@@ -4976,7 +5048,7 @@
         <v>288</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -4999,7 +5071,7 @@
         <v>288</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>308</v>
@@ -5022,7 +5094,7 @@
         <v>288</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>309</v>
@@ -5091,7 +5163,7 @@
         <v>288</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>310</v>
@@ -5114,7 +5186,7 @@
         <v>288</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>310</v>
@@ -5137,7 +5209,7 @@
         <v>288</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>310</v>
@@ -5160,7 +5232,7 @@
         <v>288</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -5183,7 +5255,7 @@
         <v>288</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -5206,7 +5278,7 @@
         <v>288</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>311</v>
@@ -5229,7 +5301,7 @@
         <v>288</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>311</v>
@@ -5252,7 +5324,7 @@
         <v>288</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>313</v>
@@ -5275,7 +5347,7 @@
         <v>288</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>314</v>
@@ -5298,7 +5370,7 @@
         <v>288</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>310</v>
@@ -5321,7 +5393,7 @@
         <v>288</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>310</v>
@@ -5344,7 +5416,7 @@
         <v>288</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>315</v>
@@ -5367,7 +5439,7 @@
         <v>288</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>315</v>
@@ -5393,7 +5465,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>69</v>
@@ -5414,7 +5486,7 @@
         <v>288</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>291</v>
@@ -5438,7 +5510,7 @@
         <v>288</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>298</v>
@@ -5462,7 +5534,7 @@
         <v>288</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>307</v>
@@ -5486,7 +5558,7 @@
         <v>288</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>315</v>
@@ -5509,7 +5581,7 @@
         <v>288</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>315</v>
@@ -5532,7 +5604,7 @@
         <v>288</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>315</v>
@@ -5555,7 +5627,7 @@
         <v>288</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -5578,7 +5650,7 @@
         <v>288</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>316</v>
@@ -5601,7 +5673,7 @@
         <v>288</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>317</v>
@@ -5624,7 +5696,7 @@
         <v>288</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>315</v>
@@ -5647,7 +5719,7 @@
         <v>288</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>315</v>
@@ -5670,7 +5742,7 @@
         <v>288</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>315</v>
@@ -5693,7 +5765,7 @@
         <v>288</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>319</v>
@@ -5739,7 +5811,7 @@
         <v>288</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>315</v>
@@ -5762,7 +5834,7 @@
         <v>288</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>315</v>
@@ -5785,7 +5857,7 @@
         <v>288</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>321</v>
@@ -5809,7 +5881,7 @@
         <v>288</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>322</v>
@@ -5833,7 +5905,7 @@
         <v>288</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>323</v>
@@ -5857,7 +5929,7 @@
         <v>288</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>324</v>
@@ -5881,7 +5953,7 @@
         <v>288</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>325</v>
@@ -5905,7 +5977,7 @@
         <v>288</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>326</v>
@@ -5929,7 +6001,7 @@
         <v>288</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>315</v>
@@ -5952,7 +6024,7 @@
         <v>288</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>315</v>
@@ -5975,7 +6047,7 @@
         <v>288</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>315</v>
@@ -5998,7 +6070,7 @@
         <v>288</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>327</v>
@@ -6021,7 +6093,7 @@
         <v>288</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>321</v>
@@ -6044,7 +6116,7 @@
         <v>288</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>328</v>
@@ -6067,7 +6139,7 @@
         <v>288</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>330</v>
@@ -6090,7 +6162,7 @@
         <v>288</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>331</v>
@@ -6136,7 +6208,7 @@
         <v>288</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>315</v>
@@ -6159,7 +6231,7 @@
         <v>288</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>321</v>
@@ -6182,7 +6254,7 @@
         <v>288</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>333</v>
@@ -6205,7 +6277,7 @@
         <v>288</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>334</v>
@@ -6228,7 +6300,7 @@
         <v>288</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>335</v>
@@ -6322,7 +6394,7 @@
         <v>288</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>330</v>
@@ -6346,7 +6418,7 @@
         <v>288</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>338</v>
@@ -6370,7 +6442,7 @@
         <v>288</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>339</v>
@@ -6394,7 +6466,7 @@
         <v>288</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>315</v>
@@ -6418,7 +6490,7 @@
         <v>288</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>330</v>
@@ -6442,7 +6514,7 @@
         <v>288</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>321</v>
@@ -6465,7 +6537,7 @@
         <v>288</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>340</v>
@@ -6488,7 +6560,7 @@
         <v>288</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>341</v>
@@ -6511,7 +6583,7 @@
         <v>288</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>330</v>
@@ -6534,7 +6606,7 @@
         <v>288</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6557,7 +6629,7 @@
         <v>288</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>321</v>
@@ -6580,7 +6652,7 @@
         <v>288</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>321</v>
@@ -6603,7 +6675,7 @@
         <v>288</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>334</v>
@@ -6626,7 +6698,7 @@
         <v>288</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>319</v>
@@ -6649,7 +6721,7 @@
         <v>288</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>343</v>
@@ -6672,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>344</v>
@@ -6695,7 +6767,7 @@
         <v>288</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -7079,7 +7151,7 @@
         <v>356</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>141</v>
@@ -7493,7 +7565,7 @@
         <v>367</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>159</v>
@@ -7585,7 +7657,7 @@
         <v>372</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>163</v>
@@ -8252,7 +8324,7 @@
         <v>396</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>192</v>
@@ -8321,7 +8393,7 @@
         <v>345</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>195</v>
@@ -8413,7 +8485,7 @@
         <v>356</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>199</v>
@@ -8505,7 +8577,7 @@
         <v>364</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>203</v>
@@ -9149,7 +9221,7 @@
         <v>417</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>231</v>
@@ -9885,7 +9957,7 @@
         <v>384</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>263</v>
@@ -11104,7 +11176,7 @@
         <v>345</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>504</v>
@@ -13063,6 +13135,397 @@
       </c>
       <c r="G385" s="1" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A386" s="5">
+        <v>383</v>
+      </c>
+      <c r="B386" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D386" s="13">
+        <v>0</v>
+      </c>
+      <c r="E386" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A387" s="5">
+        <v>384</v>
+      </c>
+      <c r="B387" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D387" s="13">
+        <v>0</v>
+      </c>
+      <c r="E387" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F387" s="5">
+        <v>0</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A388" s="5">
+        <v>385</v>
+      </c>
+      <c r="B388" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D388" s="13">
+        <v>0</v>
+      </c>
+      <c r="E388" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A389" s="5">
+        <v>386</v>
+      </c>
+      <c r="B389" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D389" s="13">
+        <v>0</v>
+      </c>
+      <c r="E389" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A390" s="5">
+        <v>387</v>
+      </c>
+      <c r="B390" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D390" s="13">
+        <v>0</v>
+      </c>
+      <c r="E390" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A391" s="5">
+        <v>388</v>
+      </c>
+      <c r="B391" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D391" s="13">
+        <v>0</v>
+      </c>
+      <c r="E391" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A392" s="5">
+        <v>389</v>
+      </c>
+      <c r="B392" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D392" s="13">
+        <v>0</v>
+      </c>
+      <c r="E392" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A393" s="5">
+        <v>390</v>
+      </c>
+      <c r="B393" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D393" s="13">
+        <v>0</v>
+      </c>
+      <c r="E393" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A394" s="5">
+        <v>391</v>
+      </c>
+      <c r="B394" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D394" s="13">
+        <v>0</v>
+      </c>
+      <c r="E394" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A395" s="5">
+        <v>392</v>
+      </c>
+      <c r="B395" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D395" s="13">
+        <v>0</v>
+      </c>
+      <c r="E395" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A396" s="5">
+        <v>393</v>
+      </c>
+      <c r="B396" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D396" s="13">
+        <v>0</v>
+      </c>
+      <c r="E396" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A397" s="5">
+        <v>394</v>
+      </c>
+      <c r="B397" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C397" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D397" s="13">
+        <v>0</v>
+      </c>
+      <c r="E397" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A398" s="5">
+        <v>395</v>
+      </c>
+      <c r="B398" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D398" s="13">
+        <v>0</v>
+      </c>
+      <c r="E398" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A399" s="5">
+        <v>396</v>
+      </c>
+      <c r="B399" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D399" s="13">
+        <v>0</v>
+      </c>
+      <c r="E399" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A400" s="5">
+        <v>397</v>
+      </c>
+      <c r="B400" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D400" s="13">
+        <v>0</v>
+      </c>
+      <c r="E400" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A401" s="5">
+        <v>398</v>
+      </c>
+      <c r="B401" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C401" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D401" s="13">
+        <v>0</v>
+      </c>
+      <c r="E401" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F401" s="5">
+        <v>0</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A402" s="5">
+        <v>399</v>
+      </c>
+      <c r="B402" s="7">
+        <v>43939</v>
+      </c>
+      <c r="C402" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D402" s="13">
+        <v>0</v>
+      </c>
+      <c r="E402" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F402" s="5">
+        <v>0</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a111002700\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E9243-82DF-4F10-9C24-E46EDC0F8B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E6948-20A0-41E2-9FC6-0A3F6A93E361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web版" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$412</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$417</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="657">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月19日現在</t>
+    <t>令和2年4月20日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -3878,6 +3878,27 @@
   </si>
   <si>
     <t>名古屋市発表236</t>
+  </si>
+  <si>
+    <t>本県発表153</t>
+  </si>
+  <si>
+    <t>No.386と接触</t>
+  </si>
+  <si>
+    <t>本県発表154</t>
+  </si>
+  <si>
+    <t>No.410と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表237</t>
+  </si>
+  <si>
+    <t>名古屋市発表238</t>
+  </si>
+  <si>
+    <t>名古屋市発表239</t>
   </si>
 </sst>
 </file>
@@ -4311,10 +4332,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H417"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A398" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E412" sqref="E412"/>
+      <selection activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12983,8 +13004,8 @@
       <c r="B377" s="7">
         <v>43938</v>
       </c>
-      <c r="C377" s="13">
-        <v>0</v>
+      <c r="C377" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="D377" s="13" t="s">
         <v>289</v>
@@ -13802,6 +13823,121 @@
       </c>
       <c r="G412" s="1" t="s">
         <v>649</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A413" s="5">
+        <v>410</v>
+      </c>
+      <c r="B413" s="7">
+        <v>43941</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D413" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E413" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F413" s="5">
+        <v>0</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A414" s="5">
+        <v>411</v>
+      </c>
+      <c r="B414" s="7">
+        <v>43941</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D414" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E414" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A415" s="5">
+        <v>412</v>
+      </c>
+      <c r="B415" s="7">
+        <v>43941</v>
+      </c>
+      <c r="C415" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D415" s="13">
+        <v>0</v>
+      </c>
+      <c r="E415" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A416" s="5">
+        <v>413</v>
+      </c>
+      <c r="B416" s="7">
+        <v>43941</v>
+      </c>
+      <c r="C416" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D416" s="13">
+        <v>0</v>
+      </c>
+      <c r="E416" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A417" s="5">
+        <v>414</v>
+      </c>
+      <c r="B417" s="7">
+        <v>43941</v>
+      </c>
+      <c r="C417" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D417" s="13">
+        <v>0</v>
+      </c>
+      <c r="E417" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F417" s="5">
+        <v>0</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E6948-20A0-41E2-9FC6-0A3F6A93E361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F386D-7C25-4C77-B515-ED5D5A6A2D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$417</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$433</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="678">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月20日現在</t>
+    <t>令和2年4月21日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -3148,7 +3148,7 @@
     <t>No.171,172と接触</t>
   </si>
   <si>
-    <t>再感染</t>
+    <t>再感染（No.54)</t>
   </si>
   <si>
     <t>No.179,182と接触</t>
@@ -3667,6 +3667,9 @@
     <t>名古屋市発表203</t>
   </si>
   <si>
+    <t>再感染（No.35）</t>
+  </si>
+  <si>
     <t>名古屋市発表204</t>
   </si>
   <si>
@@ -3899,6 +3902,66 @@
   </si>
   <si>
     <t>名古屋市発表239</t>
+  </si>
+  <si>
+    <t>No.276と接触</t>
+  </si>
+  <si>
+    <t>本県発表155</t>
+  </si>
+  <si>
+    <t>本県発表156</t>
+  </si>
+  <si>
+    <t>本県発表157</t>
+  </si>
+  <si>
+    <t>本県発表158</t>
+  </si>
+  <si>
+    <t>本県発表159</t>
+  </si>
+  <si>
+    <t>本県発表160</t>
+  </si>
+  <si>
+    <t>本県発表161</t>
+  </si>
+  <si>
+    <t>本県発表162</t>
+  </si>
+  <si>
+    <t>No.326,363と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表240</t>
+  </si>
+  <si>
+    <t>名古屋市発表241</t>
+  </si>
+  <si>
+    <t>名古屋市発表242</t>
+  </si>
+  <si>
+    <t>No.425と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表243</t>
+  </si>
+  <si>
+    <t>No.396と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表244</t>
+  </si>
+  <si>
+    <t>名古屋市発表245</t>
+  </si>
+  <si>
+    <t>名古屋市発表246</t>
+  </si>
+  <si>
+    <t>名古屋市発表247</t>
   </si>
 </sst>
 </file>
@@ -4332,10 +4395,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H417"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A398" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A417" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:XFD451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12600,10 +12663,10 @@
         <v>346</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>406</v>
+        <v>579</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.4">
@@ -12626,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.4">
@@ -12649,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.4">
@@ -12672,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.4">
@@ -12695,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.4">
@@ -12718,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.4">
@@ -12741,7 +12804,7 @@
         <v>0</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.4">
@@ -12761,10 +12824,10 @@
         <v>346</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.4">
@@ -12784,10 +12847,10 @@
         <v>346</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.4">
@@ -12807,10 +12870,10 @@
         <v>346</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.4">
@@ -12833,7 +12896,7 @@
         <v>577</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.4">
@@ -12856,7 +12919,7 @@
         <v>577</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.4">
@@ -12876,10 +12939,10 @@
         <v>346</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.4">
@@ -12902,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.4">
@@ -12925,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.4">
@@ -12948,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.4">
@@ -12971,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.4">
@@ -12994,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.4">
@@ -13014,10 +13077,10 @@
         <v>434</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.4">
@@ -13034,13 +13097,13 @@
         <v>289</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F378" s="5">
         <v>0</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.4">
@@ -13063,7 +13126,7 @@
         <v>444</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.4">
@@ -13086,7 +13149,7 @@
         <v>541</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.4">
@@ -13109,7 +13172,7 @@
         <v>541</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.4">
@@ -13132,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.4">
@@ -13152,10 +13215,10 @@
         <v>346</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.4">
@@ -13178,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.4">
@@ -13201,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.4">
@@ -13221,10 +13284,10 @@
         <v>357</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.4">
@@ -13247,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.4">
@@ -13264,13 +13327,13 @@
         <v>289</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.4">
@@ -13290,10 +13353,10 @@
         <v>368</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.4">
@@ -13313,10 +13376,10 @@
         <v>368</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.4">
@@ -13336,10 +13399,10 @@
         <v>368</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.4">
@@ -13359,10 +13422,10 @@
         <v>368</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.4">
@@ -13382,10 +13445,10 @@
         <v>368</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.4">
@@ -13408,7 +13471,7 @@
         <v>284</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.4">
@@ -13431,7 +13494,7 @@
         <v>284</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.4">
@@ -13451,10 +13514,10 @@
         <v>346</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.4">
@@ -13474,10 +13537,10 @@
         <v>346</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.4">
@@ -13497,10 +13560,10 @@
         <v>346</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.4">
@@ -13520,10 +13583,10 @@
         <v>346</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.4">
@@ -13543,10 +13606,10 @@
         <v>346</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.4">
@@ -13569,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.4">
@@ -13592,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.4">
@@ -13615,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.4">
@@ -13635,10 +13698,10 @@
         <v>358</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.4">
@@ -13661,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.4">
@@ -13684,7 +13747,7 @@
         <v>577</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.4">
@@ -13707,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.4">
@@ -13724,13 +13787,13 @@
         <v>289</v>
       </c>
       <c r="E408" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.4">
@@ -13750,10 +13813,10 @@
         <v>346</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.4">
@@ -13773,10 +13836,10 @@
         <v>346</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.4">
@@ -13796,10 +13859,10 @@
         <v>346</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.4">
@@ -13822,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.4">
@@ -13845,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.4">
@@ -13865,10 +13928,10 @@
         <v>368</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.4">
@@ -13888,10 +13951,10 @@
         <v>346</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.4">
@@ -13914,7 +13977,7 @@
         <v>541</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.4">
@@ -13937,7 +14000,375 @@
         <v>0</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A418" s="5">
+        <v>415</v>
+      </c>
+      <c r="B418" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C418" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D418" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E418" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A419" s="5">
+        <v>416</v>
+      </c>
+      <c r="B419" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C419" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D419" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E419" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F419" s="5">
+        <v>0</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A420" s="5">
+        <v>417</v>
+      </c>
+      <c r="B420" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C420" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D420" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E420" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A421" s="5">
+        <v>418</v>
+      </c>
+      <c r="B421" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C421" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E421" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A422" s="5">
+        <v>419</v>
+      </c>
+      <c r="B422" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C422" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E422" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A423" s="5">
+        <v>420</v>
+      </c>
+      <c r="B423" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C423" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D423" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E423" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A424" s="5">
+        <v>421</v>
+      </c>
+      <c r="B424" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D424" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E424" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A425" s="5">
+        <v>422</v>
+      </c>
+      <c r="B425" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C425" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E425" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A426" s="5">
+        <v>423</v>
+      </c>
+      <c r="B426" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D426" s="13">
+        <v>0</v>
+      </c>
+      <c r="E426" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A427" s="5">
+        <v>424</v>
+      </c>
+      <c r="B427" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C427" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D427" s="13">
+        <v>0</v>
+      </c>
+      <c r="E427" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A428" s="5">
+        <v>425</v>
+      </c>
+      <c r="B428" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D428" s="13">
+        <v>0</v>
+      </c>
+      <c r="E428" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A429" s="5">
+        <v>426</v>
+      </c>
+      <c r="B429" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C429" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D429" s="13">
+        <v>0</v>
+      </c>
+      <c r="E429" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A430" s="5">
+        <v>427</v>
+      </c>
+      <c r="B430" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C430" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D430" s="13">
+        <v>0</v>
+      </c>
+      <c r="E430" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A431" s="5">
+        <v>428</v>
+      </c>
+      <c r="B431" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C431" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D431" s="13">
+        <v>0</v>
+      </c>
+      <c r="E431" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F431" s="5">
+        <v>0</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A432" s="5">
+        <v>429</v>
+      </c>
+      <c r="B432" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C432" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D432" s="13">
+        <v>0</v>
+      </c>
+      <c r="E432" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F432" s="5">
+        <v>0</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A433" s="5">
+        <v>430</v>
+      </c>
+      <c r="B433" s="7">
+        <v>43942</v>
+      </c>
+      <c r="C433" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D433" s="13">
+        <v>0</v>
+      </c>
+      <c r="E433" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F433" s="5">
+        <v>0</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F386D-7C25-4C77-B515-ED5D5A6A2D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB818B5-4CA8-41B0-963A-1C03DA19B395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$433</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$452</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="709">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月21日現在</t>
+    <t>令和2年4月22日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -3962,6 +3962,99 @@
   </si>
   <si>
     <t>名古屋市発表247</t>
+  </si>
+  <si>
+    <t>No.402と接触</t>
+  </si>
+  <si>
+    <t>本県発表163</t>
+  </si>
+  <si>
+    <t>本県発表164</t>
+  </si>
+  <si>
+    <t>本県発表165</t>
+  </si>
+  <si>
+    <t>本県発表166</t>
+  </si>
+  <si>
+    <t>岩倉市</t>
+  </si>
+  <si>
+    <t>No.366と接触</t>
+  </si>
+  <si>
+    <t>本県発表167</t>
+  </si>
+  <si>
+    <t>No.435と接触</t>
+  </si>
+  <si>
+    <t>本県発表168</t>
+  </si>
+  <si>
+    <t>本県発表169</t>
+  </si>
+  <si>
+    <t>No.422と接触</t>
+  </si>
+  <si>
+    <t>本県発表170</t>
+  </si>
+  <si>
+    <t>No.328と接触</t>
+  </si>
+  <si>
+    <t>本県発表171</t>
+  </si>
+  <si>
+    <t>No.390と接触</t>
+  </si>
+  <si>
+    <t>本県発表172</t>
+  </si>
+  <si>
+    <t>名古屋市発表248</t>
+  </si>
+  <si>
+    <t>No.379,417と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表249</t>
+  </si>
+  <si>
+    <t>No.442と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表250</t>
+  </si>
+  <si>
+    <t>No.442,443と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表251</t>
+  </si>
+  <si>
+    <t>名古屋市発表252</t>
+  </si>
+  <si>
+    <t>No.445と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表253</t>
+  </si>
+  <si>
+    <t>No.417と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表254</t>
+  </si>
+  <si>
+    <t>名古屋市発表255</t>
+  </si>
+  <si>
+    <t>名古屋市発表256</t>
   </si>
 </sst>
 </file>
@@ -4395,10 +4488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:H452"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A417" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:XFD451"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14371,6 +14464,443 @@
         <v>677</v>
       </c>
     </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A434" s="5">
+        <v>431</v>
+      </c>
+      <c r="B434" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D434" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E434" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A435" s="5">
+        <v>432</v>
+      </c>
+      <c r="B435" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C435" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D435" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E435" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A436" s="5">
+        <v>433</v>
+      </c>
+      <c r="B436" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D436" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E436" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A437" s="5">
+        <v>434</v>
+      </c>
+      <c r="B437" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C437" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D437" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E437" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F437" s="5">
+        <v>0</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A438" s="5">
+        <v>435</v>
+      </c>
+      <c r="B438" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D438" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E438" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A439" s="5">
+        <v>436</v>
+      </c>
+      <c r="B439" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D439" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E439" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A440" s="5">
+        <v>437</v>
+      </c>
+      <c r="B440" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E440" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A441" s="5">
+        <v>438</v>
+      </c>
+      <c r="B441" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D441" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E441" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A442" s="5">
+        <v>439</v>
+      </c>
+      <c r="B442" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D442" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E442" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A443" s="5">
+        <v>440</v>
+      </c>
+      <c r="B443" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C443" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D443" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E443" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A444" s="5">
+        <v>441</v>
+      </c>
+      <c r="B444" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D444" s="13">
+        <v>0</v>
+      </c>
+      <c r="E444" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A445" s="5">
+        <v>442</v>
+      </c>
+      <c r="B445" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D445" s="13">
+        <v>0</v>
+      </c>
+      <c r="E445" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A446" s="5">
+        <v>443</v>
+      </c>
+      <c r="B446" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D446" s="13">
+        <v>0</v>
+      </c>
+      <c r="E446" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A447" s="5">
+        <v>444</v>
+      </c>
+      <c r="B447" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D447" s="13">
+        <v>0</v>
+      </c>
+      <c r="E447" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A448" s="5">
+        <v>445</v>
+      </c>
+      <c r="B448" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D448" s="13">
+        <v>0</v>
+      </c>
+      <c r="E448" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A449" s="5">
+        <v>446</v>
+      </c>
+      <c r="B449" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D449" s="13">
+        <v>0</v>
+      </c>
+      <c r="E449" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A450" s="5">
+        <v>447</v>
+      </c>
+      <c r="B450" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D450" s="13">
+        <v>0</v>
+      </c>
+      <c r="E450" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A451" s="5">
+        <v>448</v>
+      </c>
+      <c r="B451" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D451" s="13">
+        <v>0</v>
+      </c>
+      <c r="E451" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F451" s="5">
+        <v>0</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A452" s="5">
+        <v>449</v>
+      </c>
+      <c r="B452" s="7">
+        <v>43943</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D452" s="13">
+        <v>0</v>
+      </c>
+      <c r="E452" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F452" s="5">
+        <v>0</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A4:G186">
@@ -14382,6 +14912,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB818B5-4CA8-41B0-963A-1C03DA19B395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3ABAF-1093-4079-B272-710482380E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$452</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$464</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="726">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月22日現在</t>
+    <t>令和2年4月23日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -4055,6 +4055,57 @@
   </si>
   <si>
     <t>名古屋市発表256</t>
+  </si>
+  <si>
+    <t>本県発表173</t>
+  </si>
+  <si>
+    <t>本県発表174</t>
+  </si>
+  <si>
+    <t>No.387と接触</t>
+  </si>
+  <si>
+    <t>本県発表175</t>
+  </si>
+  <si>
+    <t>No.389と接触</t>
+  </si>
+  <si>
+    <t>本県発表176</t>
+  </si>
+  <si>
+    <t>本県発表177</t>
+  </si>
+  <si>
+    <t>本県発表178</t>
+  </si>
+  <si>
+    <t>No.435,436,437と接触</t>
+  </si>
+  <si>
+    <t>本県発表179</t>
+  </si>
+  <si>
+    <t>No.379,417,424,425と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表257</t>
+  </si>
+  <si>
+    <t>名古屋市発表258</t>
+  </si>
+  <si>
+    <t>名古屋市発表259</t>
+  </si>
+  <si>
+    <t>No.430と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表260</t>
+  </si>
+  <si>
+    <t>名古屋市発表261</t>
   </si>
 </sst>
 </file>
@@ -4488,10 +4539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H452"/>
+  <dimension ref="A1:H464"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14901,17 +14952,289 @@
         <v>708</v>
       </c>
     </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A453" s="5">
+        <v>450</v>
+      </c>
+      <c r="B453" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D453" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E453" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A454" s="5">
+        <v>451</v>
+      </c>
+      <c r="B454" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D454" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E454" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="F454" s="5">
+        <v>0</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A455" s="5">
+        <v>452</v>
+      </c>
+      <c r="B455" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D455" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E455" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A456" s="5">
+        <v>453</v>
+      </c>
+      <c r="B456" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D456" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E456" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A457" s="5">
+        <v>454</v>
+      </c>
+      <c r="B457" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D457" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E457" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A458" s="5">
+        <v>455</v>
+      </c>
+      <c r="B458" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D458" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E458" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A459" s="5">
+        <v>456</v>
+      </c>
+      <c r="B459" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C459" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D459" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E459" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A460" s="5">
+        <v>457</v>
+      </c>
+      <c r="B460" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D460" s="13">
+        <v>0</v>
+      </c>
+      <c r="E460" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A461" s="5">
+        <v>458</v>
+      </c>
+      <c r="B461" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C461" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D461" s="13">
+        <v>0</v>
+      </c>
+      <c r="E461" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A462" s="5">
+        <v>459</v>
+      </c>
+      <c r="B462" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C462" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D462" s="13">
+        <v>0</v>
+      </c>
+      <c r="E462" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A463" s="5">
+        <v>460</v>
+      </c>
+      <c r="B463" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C463" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D463" s="13">
+        <v>0</v>
+      </c>
+      <c r="E463" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A464" s="5">
+        <v>461</v>
+      </c>
+      <c r="B464" s="7">
+        <v>43944</v>
+      </c>
+      <c r="C464" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D464" s="13">
+        <v>0</v>
+      </c>
+      <c r="E464" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A4:G186">
-      <sortCondition ref="A3:A137"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a111281300\Desktop\HP更新用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B33DA1-85CD-4E7D-A5C1-CAB50B610769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="web版" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$479</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$480</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="747">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2914,7 +2913,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月25日現在</t>
+    <t>令和2年4月26日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -4252,14 +4251,17 @@
     <t>No.441と接触</t>
   </si>
   <si>
-    <t>20代女性</t>
+    <t>本県発表187</t>
+    <rPh sb="0" eb="4">
+      <t>ホンケンハッピョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4307,7 +4309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4354,13 +4356,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4417,6 +4430,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4697,14 +4713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3126700C-A451-49AA-BF4A-5D3B157B8F52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H479"/>
+  <dimension ref="A1:H480"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A467" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H458" sqref="H458"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A469" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G481" sqref="G481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15580,7 +15596,7 @@
         <v>43945</v>
       </c>
       <c r="C473" s="13" t="s">
-        <v>746</v>
+        <v>313</v>
       </c>
       <c r="D473" s="13">
         <v>0</v>
@@ -15733,8 +15749,31 @@
         <v>299</v>
       </c>
     </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A480" s="5">
+        <v>477</v>
+      </c>
+      <c r="B480" s="7">
+        <v>43947</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D480" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E480" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G480" s="19" t="s">
+        <v>746</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:G137"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB5F29-BC43-45D7-8DDC-4E3C044CF3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C77DDE-FBF3-4F37-9D29-7DAACB4F60B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$485</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$489</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="760">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月28日現在</t>
+    <t>令和2年4月29日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -4192,8 +4192,22 @@
     <t>名古屋市発表269</t>
   </si>
   <si>
-    <t>No.459と接触</t>
-    <phoneticPr fontId="1"/>
+    <t>No.465と接触</t>
+  </si>
+  <si>
+    <t>本県発表191</t>
+  </si>
+  <si>
+    <t>本県発表192</t>
+  </si>
+  <si>
+    <t>No.451と接触</t>
+  </si>
+  <si>
+    <t>本県発表193</t>
+  </si>
+  <si>
+    <t>名古屋市発表270</t>
   </si>
 </sst>
 </file>
@@ -4627,10 +4641,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A197" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A473" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15791,10 +15805,102 @@
         <v>346</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G485" s="1" t="s">
         <v>753</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A486" s="5">
+        <v>483</v>
+      </c>
+      <c r="B486" s="7">
+        <v>43950</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D486" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E486" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A487" s="5">
+        <v>484</v>
+      </c>
+      <c r="B487" s="7">
+        <v>43950</v>
+      </c>
+      <c r="C487" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D487" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E487" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F487" s="5">
+        <v>0</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A488" s="5">
+        <v>485</v>
+      </c>
+      <c r="B488" s="7">
+        <v>43950</v>
+      </c>
+      <c r="C488" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D488" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E488" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A489" s="5">
+        <v>486</v>
+      </c>
+      <c r="B489" s="7">
+        <v>43950</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D489" s="13">
+        <v>0</v>
+      </c>
+      <c r="E489" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F489" s="5">
+        <v>0</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C77DDE-FBF3-4F37-9D29-7DAACB4F60B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEA3D1-56DA-4AB2-BCB8-3234BC7ADBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web版" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$489</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$490</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="761">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月29日現在</t>
+    <t>令和2年4月30日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -4208,6 +4208,9 @@
   </si>
   <si>
     <t>名古屋市発表270</t>
+  </si>
+  <si>
+    <t>名古屋市発表271</t>
   </si>
 </sst>
 </file>
@@ -4641,10 +4644,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A473" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G489" sqref="G489"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15903,6 +15906,29 @@
         <v>759</v>
       </c>
     </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A490" s="5">
+        <v>487</v>
+      </c>
+      <c r="B490" s="7">
+        <v>43951</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D490" s="13">
+        <v>0</v>
+      </c>
+      <c r="E490" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F490" s="5">
+        <v>0</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
@@ -15910,6 +15936,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEA3D1-56DA-4AB2-BCB8-3234BC7ADBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC221C-361F-4A11-820E-503BF94724F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$490</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$493</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="766">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年4月30日現在</t>
+    <t>令和2年5月1日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -4211,6 +4211,21 @@
   </si>
   <si>
     <t>名古屋市発表271</t>
+  </si>
+  <si>
+    <t>弥富市</t>
+  </si>
+  <si>
+    <t>本県発表194</t>
+  </si>
+  <si>
+    <t>No.469と接触</t>
+  </si>
+  <si>
+    <t>本県発表195</t>
+  </si>
+  <si>
+    <t>本県発表196</t>
   </si>
 </sst>
 </file>
@@ -4644,10 +4659,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H493"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:G490"/>
+      <selection sqref="A1:G493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15929,6 +15944,75 @@
         <v>760</v>
       </c>
     </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A491" s="5">
+        <v>488</v>
+      </c>
+      <c r="B491" s="7">
+        <v>43952</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D491" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E491" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F491" s="5">
+        <v>0</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A492" s="5">
+        <v>489</v>
+      </c>
+      <c r="B492" s="7">
+        <v>43952</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D492" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E492" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A493" s="5">
+        <v>490</v>
+      </c>
+      <c r="B493" s="7">
+        <v>43952</v>
+      </c>
+      <c r="C493" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D493" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E493" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F493" s="5">
+        <v>0</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
@@ -15936,6 +16020,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC221C-361F-4A11-820E-503BF94724F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0507DE4-01C6-4E1C-AD96-835214841F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web版" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$493</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$495</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="769">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年5月1日現在</t>
+    <t>令和2年5月3日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -3016,7 +3016,7 @@
     <t>No.122と接触</t>
   </si>
   <si>
-    <t>10歳未満</t>
+    <t>10歳未満女性</t>
   </si>
   <si>
     <t>武豊町</t>
@@ -3229,6 +3229,9 @@
     <t>No.193と接触（妻）</t>
   </si>
   <si>
+    <t>0歳男性</t>
+  </si>
+  <si>
     <t>No.193と接触（子）</t>
   </si>
   <si>
@@ -3280,9 +3283,6 @@
     <t>本県発表90</t>
   </si>
   <si>
-    <t>0歳男性</t>
-  </si>
-  <si>
     <t>本県発表91</t>
   </si>
   <si>
@@ -3385,9 +3385,6 @@
     <t>岡崎市発表8</t>
   </si>
   <si>
-    <t>10歳未満女性</t>
-  </si>
-  <si>
     <t>本県発表100</t>
   </si>
   <si>
@@ -4226,6 +4223,18 @@
   </si>
   <si>
     <t>本県発表196</t>
+  </si>
+  <si>
+    <t>再感染（No.353)</t>
+  </si>
+  <si>
+    <t>本県発表197</t>
+  </si>
+  <si>
+    <t>No.424,470と接触</t>
+  </si>
+  <si>
+    <t>名古屋市発表272</t>
   </si>
 </sst>
 </file>
@@ -4659,10 +4668,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H493"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:G493"/>
+      <selection activeCell="A495" sqref="A495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10156,7 +10165,7 @@
         <v>43927</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>289</v>
@@ -10165,7 +10174,7 @@
         <v>409</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>255</v>
@@ -10185,10 +10194,10 @@
         <v>289</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>256</v>
@@ -10280,7 +10289,7 @@
         <v>402</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>260</v>
@@ -10372,7 +10381,7 @@
         <v>385</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>264</v>
@@ -10392,10 +10401,10 @@
         <v>289</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>265</v>
@@ -10415,7 +10424,7 @@
         <v>289</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>404</v>
@@ -10438,7 +10447,7 @@
         <v>289</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F251" s="5">
         <v>0</v>
@@ -10461,10 +10470,10 @@
         <v>289</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>268</v>
@@ -10510,7 +10519,7 @@
         <v>346</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>270</v>
@@ -10533,7 +10542,7 @@
         <v>346</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>271</v>
@@ -10556,7 +10565,7 @@
         <v>346</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>272</v>
@@ -10579,7 +10588,7 @@
         <v>346</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>273</v>
@@ -10602,7 +10611,7 @@
         <v>346</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>274</v>
@@ -10625,7 +10634,7 @@
         <v>346</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>275</v>
@@ -10648,7 +10657,7 @@
         <v>346</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>276</v>
@@ -10743,7 +10752,7 @@
         <v>404</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.4">
@@ -10763,10 +10772,10 @@
         <v>429</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.4">
@@ -10777,7 +10786,7 @@
         <v>43929</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D266" s="13" t="s">
         <v>289</v>
@@ -10786,7 +10795,7 @@
         <v>429</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>451</v>
@@ -10809,7 +10818,7 @@
         <v>429</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>452</v>
@@ -10898,7 +10907,7 @@
         <v>289</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>458</v>
@@ -11200,7 +11209,7 @@
         <v>402</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>479</v>
@@ -11283,7 +11292,7 @@
         <v>43930</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="D288" s="13" t="s">
         <v>289</v>
@@ -11295,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.4">
@@ -11318,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.4">
@@ -11338,10 +11347,10 @@
         <v>357</v>
       </c>
       <c r="F290" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G290" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.4">
@@ -11361,10 +11370,10 @@
         <v>357</v>
       </c>
       <c r="F291" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.4">
@@ -11384,10 +11393,10 @@
         <v>357</v>
       </c>
       <c r="F292" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G292" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.4">
@@ -11410,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.4">
@@ -11427,13 +11436,13 @@
         <v>289</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
@@ -11450,13 +11459,13 @@
         <v>289</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F295" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G295" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
@@ -11473,13 +11482,13 @@
         <v>289</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F296" s="5">
         <v>0</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
@@ -11499,10 +11508,10 @@
         <v>417</v>
       </c>
       <c r="F297" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
@@ -11522,10 +11531,10 @@
         <v>346</v>
       </c>
       <c r="F298" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G298" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
@@ -11545,10 +11554,10 @@
         <v>346</v>
       </c>
       <c r="F299" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G299" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
@@ -11571,7 +11580,7 @@
         <v>13</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
@@ -11594,7 +11603,7 @@
         <v>404</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
@@ -11617,7 +11626,7 @@
         <v>404</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
@@ -11640,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
@@ -11663,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.4">
@@ -11683,10 +11692,10 @@
         <v>357</v>
       </c>
       <c r="F305" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G305" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.4">
@@ -11709,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.4">
@@ -11726,13 +11735,13 @@
         <v>289</v>
       </c>
       <c r="E307" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="F307" s="5">
+        <v>0</v>
+      </c>
+      <c r="G307" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F307" s="5">
-        <v>0</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.4">
@@ -11755,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.4">
@@ -11778,7 +11787,7 @@
         <v>390</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.4">
@@ -11798,10 +11807,10 @@
         <v>346</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.4">
@@ -11821,10 +11830,10 @@
         <v>346</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.4">
@@ -11847,7 +11856,7 @@
         <v>428</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.4">
@@ -11867,10 +11876,10 @@
         <v>346</v>
       </c>
       <c r="F313" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G313" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="G313" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.4">
@@ -11890,10 +11899,10 @@
         <v>346</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.4">
@@ -11916,7 +11925,7 @@
         <v>482</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.4">
@@ -11936,10 +11945,10 @@
         <v>346</v>
       </c>
       <c r="F316" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.4">
@@ -11962,7 +11971,7 @@
         <v>404</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.4">
@@ -11985,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.4">
@@ -12008,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.4">
@@ -12031,7 +12040,7 @@
         <v>480</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.4">
@@ -12051,10 +12060,10 @@
         <v>365</v>
       </c>
       <c r="F321" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G321" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="G321" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.4">
@@ -12071,7 +12080,7 @@
         <v>289</v>
       </c>
       <c r="E322" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F322" s="5">
         <v>0</v>
@@ -12094,10 +12103,10 @@
         <v>289</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>281</v>
@@ -12111,16 +12120,16 @@
         <v>43932</v>
       </c>
       <c r="C324" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D324" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E324" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="F324" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="D324" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="F324" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>282</v>
@@ -12134,19 +12143,19 @@
         <v>43932</v>
       </c>
       <c r="C325" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D325" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F325" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D325" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F325" s="5" t="s">
+      <c r="G325" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.4">
@@ -12166,10 +12175,10 @@
         <v>346</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.4">
@@ -12192,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.4">
@@ -12212,10 +12221,10 @@
         <v>346</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.4">
@@ -12226,7 +12235,7 @@
         <v>43933</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>289</v>
@@ -12235,10 +12244,10 @@
         <v>346</v>
       </c>
       <c r="F329" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.4">
@@ -12258,10 +12267,10 @@
         <v>346</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.4">
@@ -12281,10 +12290,10 @@
         <v>416</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.4">
@@ -12307,7 +12316,7 @@
         <v>404</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.4">
@@ -12350,10 +12359,10 @@
         <v>402</v>
       </c>
       <c r="F334" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G334" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.4">
@@ -12370,13 +12379,13 @@
         <v>289</v>
       </c>
       <c r="E335" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.4">
@@ -12399,7 +12408,7 @@
         <v>458</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.4">
@@ -12410,7 +12419,7 @@
         <v>43934</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D337" s="13" t="s">
         <v>289</v>
@@ -12419,10 +12428,10 @@
         <v>346</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.4">
@@ -12445,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.4">
@@ -12468,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.4">
@@ -12485,13 +12494,13 @@
         <v>289</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F340" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.4">
@@ -12511,10 +12520,10 @@
         <v>417</v>
       </c>
       <c r="F341" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G341" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.4">
@@ -12537,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.4">
@@ -12557,10 +12566,10 @@
         <v>346</v>
       </c>
       <c r="F343" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.4">
@@ -12580,10 +12589,10 @@
         <v>346</v>
       </c>
       <c r="F344" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G344" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.4">
@@ -12594,7 +12603,7 @@
         <v>43935</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>362</v>
+        <v>534</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>289</v>
@@ -12603,10 +12612,10 @@
         <v>346</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.4">
@@ -12629,7 +12638,7 @@
         <v>404</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.4">
@@ -12652,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.4">
@@ -12675,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.4">
@@ -12698,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.4">
@@ -12718,10 +12727,10 @@
         <v>357</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.4">
@@ -12738,13 +12747,13 @@
         <v>289</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.4">
@@ -12761,13 +12770,13 @@
         <v>289</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F352" s="5">
         <v>0</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.4">
@@ -12790,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.4">
@@ -12813,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.4">
@@ -12833,10 +12842,10 @@
         <v>368</v>
       </c>
       <c r="F355" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G355" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.4">
@@ -12856,10 +12865,10 @@
         <v>368</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.4">
@@ -12879,10 +12888,10 @@
         <v>346</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.4">
@@ -12902,10 +12911,10 @@
         <v>346</v>
       </c>
       <c r="F358" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.4">
@@ -12925,10 +12934,10 @@
         <v>346</v>
       </c>
       <c r="F359" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.4">
@@ -12951,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.4">
@@ -12974,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.4">
@@ -12997,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.4">
@@ -13020,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.4">
@@ -13043,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.4">
@@ -13066,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.4">
@@ -13086,10 +13095,10 @@
         <v>346</v>
       </c>
       <c r="F366" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G366" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.4">
@@ -13109,10 +13118,10 @@
         <v>346</v>
       </c>
       <c r="F367" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G367" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="G367" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.4">
@@ -13132,10 +13141,10 @@
         <v>346</v>
       </c>
       <c r="F368" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G368" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.4">
@@ -13155,10 +13164,10 @@
         <v>346</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.4">
@@ -13178,10 +13187,10 @@
         <v>346</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.4">
@@ -13201,10 +13210,10 @@
         <v>346</v>
       </c>
       <c r="F371" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G371" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.4">
@@ -13227,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.4">
@@ -13250,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.4">
@@ -13273,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.4">
@@ -13296,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.4">
@@ -13319,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.4">
@@ -13336,13 +13345,13 @@
         <v>289</v>
       </c>
       <c r="E377" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F377" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="G377" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="G377" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.4">
@@ -13359,13 +13368,13 @@
         <v>289</v>
       </c>
       <c r="E378" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="F378" s="5">
+        <v>0</v>
+      </c>
+      <c r="G378" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F378" s="5">
-        <v>0</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.4">
@@ -13385,10 +13394,10 @@
         <v>346</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.4">
@@ -13408,10 +13417,10 @@
         <v>346</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.4">
@@ -13422,7 +13431,7 @@
         <v>43938</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="D381" s="13">
         <v>0</v>
@@ -13431,10 +13440,10 @@
         <v>346</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.4">
@@ -13457,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.4">
@@ -13477,10 +13486,10 @@
         <v>346</v>
       </c>
       <c r="F383" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.4">
@@ -13503,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.4">
@@ -13526,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.4">
@@ -13546,10 +13555,10 @@
         <v>357</v>
       </c>
       <c r="F386" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G386" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="G386" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.4">
@@ -13572,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.4">
@@ -13589,13 +13598,13 @@
         <v>289</v>
       </c>
       <c r="E388" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F388" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="F388" s="5" t="s">
+      <c r="G388" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.4">
@@ -13615,10 +13624,10 @@
         <v>368</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.4">
@@ -13638,10 +13647,10 @@
         <v>368</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.4">
@@ -13661,10 +13670,10 @@
         <v>368</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.4">
@@ -13684,10 +13693,10 @@
         <v>368</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.4">
@@ -13707,10 +13716,10 @@
         <v>368</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.4">
@@ -13733,7 +13742,7 @@
         <v>284</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.4">
@@ -13756,7 +13765,7 @@
         <v>284</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.4">
@@ -13776,10 +13785,10 @@
         <v>346</v>
       </c>
       <c r="F396" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G396" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="G396" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.4">
@@ -13799,10 +13808,10 @@
         <v>346</v>
       </c>
       <c r="F397" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G397" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.4">
@@ -13822,10 +13831,10 @@
         <v>346</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.4">
@@ -13845,10 +13854,10 @@
         <v>346</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.4">
@@ -13868,10 +13877,10 @@
         <v>346</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.4">
@@ -13894,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.4">
@@ -13917,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.4">
@@ -13940,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.4">
@@ -13960,10 +13969,10 @@
         <v>358</v>
       </c>
       <c r="F404" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G404" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="G404" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.4">
@@ -13986,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.4">
@@ -14006,10 +14015,10 @@
         <v>374</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.4">
@@ -14032,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.4">
@@ -14049,13 +14058,13 @@
         <v>289</v>
       </c>
       <c r="E408" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="G408" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F408" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.4">
@@ -14075,10 +14084,10 @@
         <v>346</v>
       </c>
       <c r="F409" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="G409" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.4">
@@ -14098,10 +14107,10 @@
         <v>346</v>
       </c>
       <c r="F410" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G410" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="G410" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.4">
@@ -14121,10 +14130,10 @@
         <v>346</v>
       </c>
       <c r="F411" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="G411" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="G411" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.4">
@@ -14147,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.4">
@@ -14170,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.4">
@@ -14190,10 +14199,10 @@
         <v>368</v>
       </c>
       <c r="F414" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G414" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.4">
@@ -14213,10 +14222,10 @@
         <v>346</v>
       </c>
       <c r="F415" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G415" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="G415" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.4">
@@ -14236,10 +14245,10 @@
         <v>346</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.4">
@@ -14262,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.4">
@@ -14282,10 +14291,10 @@
         <v>357</v>
       </c>
       <c r="F418" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G418" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.4">
@@ -14308,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.4">
@@ -14328,10 +14337,10 @@
         <v>374</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.4">
@@ -14351,10 +14360,10 @@
         <v>374</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.4">
@@ -14374,10 +14383,10 @@
         <v>460</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.4">
@@ -14397,10 +14406,10 @@
         <v>464</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.4">
@@ -14420,10 +14429,10 @@
         <v>417</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.4">
@@ -14440,13 +14449,13 @@
         <v>289</v>
       </c>
       <c r="E425" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.4">
@@ -14466,10 +14475,10 @@
         <v>346</v>
       </c>
       <c r="F426" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G426" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="G426" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.4">
@@ -14489,10 +14498,10 @@
         <v>346</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.4">
@@ -14512,10 +14521,10 @@
         <v>346</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.4">
@@ -14535,10 +14544,10 @@
         <v>346</v>
       </c>
       <c r="F429" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G429" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.4">
@@ -14558,10 +14567,10 @@
         <v>346</v>
       </c>
       <c r="F430" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G430" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.4">
@@ -14584,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.4">
@@ -14607,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.4">
@@ -14630,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.4">
@@ -14641,7 +14650,7 @@
         <v>43943</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D434" s="13" t="s">
         <v>289</v>
@@ -14650,10 +14659,10 @@
         <v>357</v>
       </c>
       <c r="F434" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G434" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="G434" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.4">
@@ -14664,7 +14673,7 @@
         <v>43943</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D435" s="13" t="s">
         <v>289</v>
@@ -14673,10 +14682,10 @@
         <v>357</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.4">
@@ -14687,7 +14696,7 @@
         <v>43943</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="D436" s="13" t="s">
         <v>289</v>
@@ -14696,10 +14705,10 @@
         <v>357</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.4">
@@ -14722,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.4">
@@ -14739,13 +14748,13 @@
         <v>289</v>
       </c>
       <c r="E438" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="F438" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="G438" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="G438" s="1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.4">
@@ -14762,13 +14771,13 @@
         <v>289</v>
       </c>
       <c r="E439" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F439" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G439" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="G439" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.4">
@@ -14785,13 +14794,13 @@
         <v>289</v>
       </c>
       <c r="E440" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.4">
@@ -14808,13 +14817,13 @@
         <v>289</v>
       </c>
       <c r="E441" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F441" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="G441" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="G441" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.4">
@@ -14834,10 +14843,10 @@
         <v>416</v>
       </c>
       <c r="F442" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G442" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="G442" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.4">
@@ -14857,10 +14866,10 @@
         <v>368</v>
       </c>
       <c r="F443" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G443" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="G443" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.4">
@@ -14880,10 +14889,10 @@
         <v>346</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.4">
@@ -14903,10 +14912,10 @@
         <v>346</v>
       </c>
       <c r="F445" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G445" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="G445" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.4">
@@ -14926,10 +14935,10 @@
         <v>346</v>
       </c>
       <c r="F446" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G446" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="G446" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.4">
@@ -14940,7 +14949,7 @@
         <v>43943</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="D447" s="13">
         <v>0</v>
@@ -14949,10 +14958,10 @@
         <v>346</v>
       </c>
       <c r="F447" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G447" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="G447" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.4">
@@ -14972,10 +14981,10 @@
         <v>346</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.4">
@@ -14995,10 +15004,10 @@
         <v>346</v>
       </c>
       <c r="F449" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="G449" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="G449" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.4">
@@ -15018,10 +15027,10 @@
         <v>346</v>
       </c>
       <c r="F450" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="G450" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.4">
@@ -15044,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.4">
@@ -15067,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.4">
@@ -15087,10 +15096,10 @@
         <v>429</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.4">
@@ -15107,13 +15116,13 @@
         <v>289</v>
       </c>
       <c r="E454" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F454" s="5">
         <v>0</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.4">
@@ -15133,10 +15142,10 @@
         <v>368</v>
       </c>
       <c r="F455" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="G455" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="G455" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.4">
@@ -15156,10 +15165,10 @@
         <v>368</v>
       </c>
       <c r="F456" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G456" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="G456" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.4">
@@ -15179,10 +15188,10 @@
         <v>368</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.4">
@@ -15202,10 +15211,10 @@
         <v>368</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.4">
@@ -15222,13 +15231,13 @@
         <v>289</v>
       </c>
       <c r="E459" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F459" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G459" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="G459" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.4">
@@ -15248,10 +15257,10 @@
         <v>346</v>
       </c>
       <c r="F460" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G460" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="G460" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.4">
@@ -15271,10 +15280,10 @@
         <v>346</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.4">
@@ -15294,10 +15303,10 @@
         <v>346</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.4">
@@ -15317,10 +15326,10 @@
         <v>346</v>
       </c>
       <c r="F463" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G463" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="G463" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.4">
@@ -15340,10 +15349,10 @@
         <v>346</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.4">
@@ -15366,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.4">
@@ -15389,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.4">
@@ -15406,13 +15415,13 @@
         <v>289</v>
       </c>
       <c r="E467" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F467" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G467" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="G467" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.4">
@@ -15435,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.4">
@@ -15446,7 +15455,7 @@
         <v>43945</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="D469" s="13" t="s">
         <v>289</v>
@@ -15455,10 +15464,10 @@
         <v>368</v>
       </c>
       <c r="F469" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="G469" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="G469" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.4">
@@ -15478,10 +15487,10 @@
         <v>368</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.4">
@@ -15501,10 +15510,10 @@
         <v>368</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.4">
@@ -15524,10 +15533,10 @@
         <v>460</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.4">
@@ -15547,10 +15556,10 @@
         <v>346</v>
       </c>
       <c r="F473" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G473" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="G473" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.4">
@@ -15570,10 +15579,10 @@
         <v>346</v>
       </c>
       <c r="F474" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G474" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="G474" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.4">
@@ -15593,10 +15602,10 @@
         <v>346</v>
       </c>
       <c r="F475" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G475" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="G475" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.4">
@@ -15616,10 +15625,10 @@
         <v>346</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.4">
@@ -15642,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.4">
@@ -15665,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.4">
@@ -15688,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.4">
@@ -15705,13 +15714,13 @@
         <v>289</v>
       </c>
       <c r="E480" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.4">
@@ -15731,10 +15740,10 @@
         <v>394</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.4">
@@ -15751,13 +15760,13 @@
         <v>289</v>
       </c>
       <c r="E482" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="F482" s="5">
+        <v>0</v>
+      </c>
+      <c r="G482" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="F482" s="5">
-        <v>0</v>
-      </c>
-      <c r="G482" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.4">
@@ -15774,13 +15783,13 @@
         <v>289</v>
       </c>
       <c r="E483" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F483" s="5">
         <v>0</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.4">
@@ -15800,10 +15809,10 @@
         <v>346</v>
       </c>
       <c r="F484" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G484" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="G484" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.4">
@@ -15823,10 +15832,10 @@
         <v>346</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.4">
@@ -15846,10 +15855,10 @@
         <v>368</v>
       </c>
       <c r="F486" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G486" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="G486" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.4">
@@ -15872,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.4">
@@ -15889,13 +15898,13 @@
         <v>289</v>
       </c>
       <c r="E488" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F488" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G488" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="G488" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.4">
@@ -15918,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.4">
@@ -15941,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.4">
@@ -15958,13 +15967,13 @@
         <v>289</v>
       </c>
       <c r="E491" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="F491" s="5">
+        <v>0</v>
+      </c>
+      <c r="G491" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="F491" s="5">
-        <v>0</v>
-      </c>
-      <c r="G491" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.4">
@@ -15984,10 +15993,10 @@
         <v>460</v>
       </c>
       <c r="F492" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="G492" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="G492" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.4">
@@ -16010,7 +16019,53 @@
         <v>0</v>
       </c>
       <c r="G493" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A494" s="5">
+        <v>491</v>
+      </c>
+      <c r="B494" s="7">
+        <v>43954</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D494" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E494" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F494" s="5" t="s">
         <v>765</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A495" s="5">
+        <v>492</v>
+      </c>
+      <c r="B495" s="7">
+        <v>43954</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D495" s="13">
+        <v>0</v>
+      </c>
+      <c r="E495" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/data/source.xlsx
+++ b/data/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.2.41.48\分室事業用\感染症（グループ共有から）\新型コロナウイルス\□県内発生事例一覧表\Web掲載用（0416復活）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0507DE4-01C6-4E1C-AD96-835214841F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D95B2-50E2-4176-8E2D-A98C6F97FB37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">web版!$A$3:$G$137</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$495</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">web版!$A$1:$G$498</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="774">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2785,7 +2785,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和2年5月3日現在</t>
+    <t>令和2年5月4日現在</t>
   </si>
   <si>
     <t>40代男性</t>
@@ -4235,6 +4235,21 @@
   </si>
   <si>
     <t>名古屋市発表272</t>
+  </si>
+  <si>
+    <t>No.490と接触</t>
+  </si>
+  <si>
+    <t>本県発表198</t>
+  </si>
+  <si>
+    <t>No.389,453と接触</t>
+  </si>
+  <si>
+    <t>本県発表199</t>
+  </si>
+  <si>
+    <t>豊田市発表8</t>
   </si>
 </sst>
 </file>
@@ -4668,10 +4683,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16068,6 +16083,75 @@
         <v>768</v>
       </c>
     </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A496" s="5">
+        <v>493</v>
+      </c>
+      <c r="B496" s="7">
+        <v>43955</v>
+      </c>
+      <c r="C496" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D496" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E496" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A497" s="5">
+        <v>494</v>
+      </c>
+      <c r="B497" s="7">
+        <v>43955</v>
+      </c>
+      <c r="C497" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D497" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E497" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A498" s="5">
+        <v>495</v>
+      </c>
+      <c r="B498" s="7">
+        <v>43955</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D498" s="13">
+        <v>0</v>
+      </c>
+      <c r="E498" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F498" s="5">
+        <v>0</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:G137" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
